--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mdk-Notch2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mdk-Notch2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H2">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I2">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J2">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N2">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O2">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P2">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q2">
-        <v>2.154098853768496</v>
+        <v>2.2107722426625</v>
       </c>
       <c r="R2">
-        <v>2.154098853768496</v>
+        <v>8.843088970649999</v>
       </c>
       <c r="S2">
-        <v>0.0006888270616543901</v>
+        <v>0.0005397492244018108</v>
       </c>
       <c r="T2">
-        <v>0.0006888270616543901</v>
+        <v>0.0003327028060047626</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H3">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I3">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J3">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N3">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O3">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P3">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q3">
-        <v>27.37542188960216</v>
+        <v>28.9747238336875</v>
       </c>
       <c r="R3">
-        <v>27.37542188960216</v>
+        <v>173.848343002125</v>
       </c>
       <c r="S3">
-        <v>0.008753976814376277</v>
+        <v>0.007074037033165781</v>
       </c>
       <c r="T3">
-        <v>0.008753976814376277</v>
+        <v>0.006540681850884283</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H4">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I4">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J4">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N4">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O4">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P4">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q4">
-        <v>72.99198245320171</v>
+        <v>75.5645257107125</v>
       </c>
       <c r="R4">
-        <v>72.99198245320171</v>
+        <v>453.387154264275</v>
       </c>
       <c r="S4">
-        <v>0.02334101460088854</v>
+        <v>0.01844870916939326</v>
       </c>
       <c r="T4">
-        <v>0.02334101460088854</v>
+        <v>0.01705774746029169</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H5">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I5">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J5">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N5">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O5">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P5">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q5">
-        <v>87.15384318415043</v>
+        <v>88.34364503442499</v>
       </c>
       <c r="R5">
-        <v>87.15384318415043</v>
+        <v>530.06187020655</v>
       </c>
       <c r="S5">
-        <v>0.02786962427810556</v>
+        <v>0.02156866861632621</v>
       </c>
       <c r="T5">
-        <v>0.02786962427810556</v>
+        <v>0.01994247396573336</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H6">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I6">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J6">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N6">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O6">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P6">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q6">
-        <v>2.828781447667507</v>
+        <v>2.9705865129875</v>
       </c>
       <c r="R6">
-        <v>2.828781447667507</v>
+        <v>17.823519077925</v>
       </c>
       <c r="S6">
-        <v>0.000904573719655613</v>
+        <v>0.0007252541602713872</v>
       </c>
       <c r="T6">
-        <v>0.000904573719655613</v>
+        <v>0.0006705727862499607</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H7">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I7">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J7">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N7">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O7">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P7">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q7">
-        <v>47.43036278087136</v>
+        <v>51.6354244638375</v>
       </c>
       <c r="R7">
-        <v>47.43036278087136</v>
+        <v>206.54169785535</v>
       </c>
       <c r="S7">
-        <v>0.0151670464753242</v>
+        <v>0.01260653619951808</v>
       </c>
       <c r="T7">
-        <v>0.0151670464753242</v>
+        <v>0.00777070124043</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H8">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I8">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J8">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N8">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O8">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P8">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q8">
-        <v>3.424170220222113</v>
+        <v>4.039874241624</v>
       </c>
       <c r="R8">
-        <v>3.424170220222113</v>
+        <v>24.239245449744</v>
       </c>
       <c r="S8">
-        <v>0.001094964192229941</v>
+        <v>0.0009863155265471138</v>
       </c>
       <c r="T8">
-        <v>0.001094964192229941</v>
+        <v>0.0009119511296712912</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H9">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I9">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J9">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N9">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O9">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P9">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q9">
-        <v>43.51615722574747</v>
+        <v>52.94721826836</v>
       </c>
       <c r="R9">
-        <v>43.51615722574747</v>
+        <v>476.52496441524</v>
       </c>
       <c r="S9">
-        <v>0.01391538121096997</v>
+        <v>0.01292680423749264</v>
       </c>
       <c r="T9">
-        <v>0.01391538121096997</v>
+        <v>0.01792825938068298</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H10">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I10">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J10">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N10">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O10">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P10">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q10">
-        <v>116.0285528187229</v>
+        <v>138.083505441336</v>
       </c>
       <c r="R10">
-        <v>116.0285528187229</v>
+        <v>1242.751548972024</v>
       </c>
       <c r="S10">
-        <v>0.03710303590121197</v>
+        <v>0.03371241212748585</v>
       </c>
       <c r="T10">
-        <v>0.03710303590121197</v>
+        <v>0.04675593888991103</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H11">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I11">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J11">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N11">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O11">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P11">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q11">
-        <v>138.5403431634473</v>
+        <v>161.435542340592</v>
       </c>
       <c r="R11">
-        <v>138.5403431634473</v>
+        <v>1452.919881065328</v>
       </c>
       <c r="S11">
-        <v>0.04430174471098079</v>
+        <v>0.03941369766081433</v>
       </c>
       <c r="T11">
-        <v>0.04430174471098079</v>
+        <v>0.05466308469075707</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H12">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I12">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J12">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N12">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O12">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P12">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q12">
-        <v>4.496650270099845</v>
+        <v>5.428327579272</v>
       </c>
       <c r="R12">
-        <v>4.496650270099845</v>
+        <v>48.854948213448</v>
       </c>
       <c r="S12">
-        <v>0.001437916550311288</v>
+        <v>0.001325299614392847</v>
       </c>
       <c r="T12">
-        <v>0.001437916550311288</v>
+        <v>0.001838065681774632</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H13">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I13">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J13">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N13">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O13">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P13">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q13">
-        <v>75.39562796037093</v>
+        <v>94.356450303336</v>
       </c>
       <c r="R13">
-        <v>75.39562796037093</v>
+        <v>566.1387018200161</v>
       </c>
       <c r="S13">
-        <v>0.02410964045529888</v>
+        <v>0.02303666559844197</v>
       </c>
       <c r="T13">
-        <v>0.02410964045529888</v>
+        <v>0.02129978962199315</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H14">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I14">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J14">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N14">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O14">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P14">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q14">
-        <v>3.092541855121328</v>
+        <v>3.239440345697667</v>
       </c>
       <c r="R14">
-        <v>3.092541855121328</v>
+        <v>19.436642074186</v>
       </c>
       <c r="S14">
-        <v>0.0009889177162782981</v>
+        <v>0.0007908935078633409</v>
       </c>
       <c r="T14">
-        <v>0.0009889177162782981</v>
+        <v>0.0007312631795127795</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H15">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I15">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J15">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N15">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O15">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P15">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q15">
-        <v>39.30164943316839</v>
+        <v>42.45660750618723</v>
       </c>
       <c r="R15">
-        <v>39.30164943316839</v>
+        <v>382.109467555685</v>
       </c>
       <c r="S15">
-        <v>0.01256768678459627</v>
+        <v>0.0103655729568046</v>
       </c>
       <c r="T15">
-        <v>0.01256768678459627</v>
+        <v>0.01437607293997606</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H16">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I16">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J16">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N16">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O16">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P16">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q16">
-        <v>104.7912728934897</v>
+        <v>110.7245552332368</v>
       </c>
       <c r="R16">
-        <v>104.7912728934897</v>
+        <v>996.520997099131</v>
       </c>
       <c r="S16">
-        <v>0.0335096341878484</v>
+        <v>0.02703285831805091</v>
       </c>
       <c r="T16">
-        <v>0.0335096341878484</v>
+        <v>0.03749202717262439</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H17">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I17">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J17">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N17">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O17">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P17">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q17">
-        <v>125.1228129155452</v>
+        <v>129.4497743765091</v>
       </c>
       <c r="R17">
-        <v>125.1228129155452</v>
+        <v>1165.047969388582</v>
       </c>
       <c r="S17">
-        <v>0.04001115334877278</v>
+        <v>0.03160452893807059</v>
       </c>
       <c r="T17">
-        <v>0.04001115334877278</v>
+        <v>0.0438325035326701</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H18">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I18">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J18">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N18">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O18">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P18">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q18">
-        <v>4.061153001682365</v>
+        <v>4.352794745137444</v>
       </c>
       <c r="R18">
-        <v>4.061153001682365</v>
+        <v>39.175152706237</v>
       </c>
       <c r="S18">
-        <v>0.001298655390946331</v>
+        <v>0.001062713536170845</v>
       </c>
       <c r="T18">
-        <v>0.001298655390946331</v>
+        <v>0.001473883534847224</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H19">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I19">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J19">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N19">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O19">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P19">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q19">
-        <v>68.09361689544703</v>
+        <v>75.66128886887567</v>
       </c>
       <c r="R19">
-        <v>68.09361689544703</v>
+        <v>453.967733213254</v>
       </c>
       <c r="S19">
-        <v>0.02177463952568976</v>
+        <v>0.0184723334209382</v>
       </c>
       <c r="T19">
-        <v>0.02177463952568976</v>
+        <v>0.01707959053413995</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H20">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I20">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J20">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N20">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O20">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P20">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q20">
-        <v>3.047946729367434</v>
+        <v>3.329924869385</v>
       </c>
       <c r="R20">
-        <v>3.047946729367434</v>
+        <v>19.97954921631</v>
       </c>
       <c r="S20">
-        <v>0.0009746573078558053</v>
+        <v>0.000812984861526162</v>
       </c>
       <c r="T20">
-        <v>0.0009746573078558053</v>
+        <v>0.0007516889300829907</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H21">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I21">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J21">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N21">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O21">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P21">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q21">
-        <v>38.73491110563205</v>
+        <v>43.64251170494167</v>
       </c>
       <c r="R21">
-        <v>38.73491110563205</v>
+        <v>392.782605344475</v>
       </c>
       <c r="S21">
-        <v>0.01238645800941689</v>
+        <v>0.01065510566358478</v>
       </c>
       <c r="T21">
-        <v>0.01238645800941689</v>
+        <v>0.01477762752152461</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H22">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I22">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J22">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N22">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O22">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P22">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q22">
-        <v>103.2801599606585</v>
+        <v>113.8173297780984</v>
       </c>
       <c r="R22">
-        <v>103.2801599606585</v>
+        <v>1024.355968002885</v>
       </c>
       <c r="S22">
-        <v>0.03302641797911727</v>
+        <v>0.02778794408836449</v>
       </c>
       <c r="T22">
-        <v>0.03302641797911727</v>
+        <v>0.03853925998408611</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H23">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I23">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J23">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N23">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O23">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P23">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q23">
-        <v>123.3185147562788</v>
+        <v>133.0655844936634</v>
       </c>
       <c r="R23">
-        <v>123.3185147562788</v>
+        <v>1197.59026044297</v>
       </c>
       <c r="S23">
-        <v>0.03943418382055379</v>
+        <v>0.03248731128383037</v>
       </c>
       <c r="T23">
-        <v>0.03943418382055379</v>
+        <v>0.04505683946138832</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H24">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I24">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J24">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N24">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O24">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P24">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q24">
-        <v>4.002590292655191</v>
+        <v>4.474377647488334</v>
       </c>
       <c r="R24">
-        <v>4.002590292655191</v>
+        <v>40.269398827395</v>
       </c>
       <c r="S24">
-        <v>0.001279928497929728</v>
+        <v>0.001092397406801218</v>
       </c>
       <c r="T24">
-        <v>0.001279928497929728</v>
+        <v>0.001515052266291338</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H25">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I25">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J25">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N25">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O25">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P25">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q25">
-        <v>67.11169213880673</v>
+        <v>77.77467110601501</v>
       </c>
       <c r="R25">
-        <v>67.11169213880673</v>
+        <v>466.64802663609</v>
       </c>
       <c r="S25">
-        <v>0.02146064449073631</v>
+        <v>0.01898830535207967</v>
       </c>
       <c r="T25">
-        <v>0.02146064449073631</v>
+        <v>0.01755666016634011</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H26">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I26">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J26">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N26">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O26">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P26">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q26">
-        <v>1.119763324247096</v>
+        <v>1.380290871139</v>
       </c>
       <c r="R26">
-        <v>1.119763324247096</v>
+        <v>8.281745226833998</v>
       </c>
       <c r="S26">
-        <v>0.0003580723693530056</v>
+        <v>0.0003369912615914409</v>
       </c>
       <c r="T26">
-        <v>0.0003580723693530056</v>
+        <v>0.0003115834166917458</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H27">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I27">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J27">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N27">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O27">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P27">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q27">
-        <v>14.23054163189395</v>
+        <v>18.09030619691833</v>
       </c>
       <c r="R27">
-        <v>14.23054163189395</v>
+        <v>162.812755772265</v>
       </c>
       <c r="S27">
-        <v>0.004550572115527181</v>
+        <v>0.004416659731179991</v>
       </c>
       <c r="T27">
-        <v>0.004550572115527181</v>
+        <v>0.006125490863948541</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H28">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I28">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J28">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N28">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O28">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P28">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q28">
-        <v>37.94335843603159</v>
+        <v>47.17854829533767</v>
       </c>
       <c r="R28">
-        <v>37.94335843603159</v>
+        <v>424.606934658039</v>
       </c>
       <c r="S28">
-        <v>0.01213333921749529</v>
+        <v>0.0115184116931666</v>
       </c>
       <c r="T28">
-        <v>0.01213333921749529</v>
+        <v>0.01597495163496323</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H29">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I29">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J29">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N29">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O29">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P29">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q29">
-        <v>45.30510612085526</v>
+        <v>55.15716382312867</v>
       </c>
       <c r="R29">
-        <v>45.30510612085526</v>
+        <v>496.414474408158</v>
       </c>
       <c r="S29">
-        <v>0.01448744242752517</v>
+        <v>0.01346635163009065</v>
       </c>
       <c r="T29">
-        <v>0.01448744242752517</v>
+        <v>0.0186765607725005</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H30">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I30">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J30">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N30">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O30">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P30">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q30">
-        <v>1.470482987290565</v>
+        <v>1.854679268483667</v>
       </c>
       <c r="R30">
-        <v>1.470482987290565</v>
+        <v>16.692113416353</v>
       </c>
       <c r="S30">
-        <v>0.0004702237659966687</v>
+        <v>0.0004528108673341077</v>
       </c>
       <c r="T30">
-        <v>0.0004702237659966687</v>
+        <v>0.0006280060044858041</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H31">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I31">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J31">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N31">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O31">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P31">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q31">
-        <v>24.65568402528946</v>
+        <v>32.238465654421</v>
       </c>
       <c r="R31">
-        <v>24.65568402528946</v>
+        <v>193.430793926526</v>
       </c>
       <c r="S31">
-        <v>0.007884272511685048</v>
+        <v>0.007870863627237322</v>
       </c>
       <c r="T31">
-        <v>0.007884272511685048</v>
+        <v>0.007277430784726559</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H32">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I32">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J32">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N32">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O32">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P32">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q32">
-        <v>15.23703569908617</v>
+        <v>22.0638887619075</v>
       </c>
       <c r="R32">
-        <v>15.23703569908617</v>
+        <v>88.25555504762998</v>
       </c>
       <c r="S32">
-        <v>0.004872423802910837</v>
+        <v>0.005386790469281934</v>
       </c>
       <c r="T32">
-        <v>0.004872423802910837</v>
+        <v>0.003320431458657597</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H33">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I33">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J33">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N33">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O33">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P33">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q33">
-        <v>193.6402685882686</v>
+        <v>289.1727475298625</v>
       </c>
       <c r="R33">
-        <v>193.6402685882686</v>
+        <v>1735.036485179175</v>
       </c>
       <c r="S33">
-        <v>0.06192132593927788</v>
+        <v>0.07060011121245631</v>
       </c>
       <c r="T33">
-        <v>0.06192132593927788</v>
+        <v>0.06527713438772766</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H34">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I34">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J34">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N34">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O34">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P34">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q34">
-        <v>516.3093794144107</v>
+        <v>754.1470158950175</v>
       </c>
       <c r="R34">
-        <v>516.3093794144107</v>
+        <v>4524.882095370105</v>
       </c>
       <c r="S34">
-        <v>0.1651028559364584</v>
+        <v>0.184121303433796</v>
       </c>
       <c r="T34">
-        <v>0.1651028559364584</v>
+        <v>0.1702392653706037</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H35">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I35">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J35">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N35">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O35">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P35">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q35">
-        <v>616.4834160634005</v>
+        <v>881.6848335826351</v>
       </c>
       <c r="R35">
-        <v>616.4834160634005</v>
+        <v>5290.10900149581</v>
       </c>
       <c r="S35">
-        <v>0.1971360131883951</v>
+        <v>0.2152590375026329</v>
       </c>
       <c r="T35">
-        <v>0.1971360131883951</v>
+        <v>0.1990293340607812</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H36">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I36">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J36">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N36">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O36">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P36">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q36">
-        <v>20.00940849470166</v>
+        <v>29.6469663927225</v>
       </c>
       <c r="R36">
-        <v>20.00940849470166</v>
+        <v>177.881798356335</v>
       </c>
       <c r="S36">
-        <v>0.006398509536707185</v>
+        <v>0.007238161764265194</v>
       </c>
       <c r="T36">
-        <v>0.006398509536707185</v>
+        <v>0.006692432208558448</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H37">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I37">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J37">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N37">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O37">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P37">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q37">
-        <v>335.4990555091833</v>
+        <v>515.3304531143925</v>
       </c>
       <c r="R37">
-        <v>335.4990555091833</v>
+        <v>2061.32181245757</v>
       </c>
       <c r="S37">
-        <v>0.1072842261579192</v>
+        <v>0.1258154083046309</v>
       </c>
       <c r="T37">
-        <v>0.1072842261579192</v>
+        <v>0.07755294030848671</v>
       </c>
     </row>
   </sheetData>
